--- a/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Brent/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Brent.xlsx
+++ b/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Brent/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Brent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le Borough londonien de Brent, un borough périphérique de Londres situé au nord-ouest de l'agglomération, compte environ 100 parcs et espaces verts. Ceux-ci incluent des terrains de loisirs et de sport, un grand parc de campagne et un grand réservoir. Les principaux domaines d’espace vert sont:
-Barham Park, Sudbury: parc victorien classique d'environ 10,5 hectares [1]
-Brent Reservoir (Welsh Harp): en partie à Barnet, environ 170 hectares[2],La Local Nature Reserve et le seul Site d'intérêt scientifique particulier du borough
-Fryent Country Park, Kingsbury: environ 103 hectares[3], Local Nature Reserve
-Gladstone Park, Dollis Hill: ouvert en mai 1901, parc officiel portant le nom de William Ewart Gladstone, environ 35 hectares[4]
-Roundwood Park, Willesden: ouvert en mai 1895, ancien parc victorien, environ 10,27 hectares[5]
+Barham Park, Sudbury: parc victorien classique d'environ 10,5 hectares 
+Brent Reservoir (Welsh Harp): en partie à Barnet, environ 170 hectares,La Local Nature Reserve et le seul Site d'intérêt scientifique particulier du borough
+Fryent Country Park, Kingsbury: environ 103 hectares, Local Nature Reserve
+Gladstone Park, Dollis Hill: ouvert en mai 1901, parc officiel portant le nom de William Ewart Gladstone, environ 35 hectares
+Roundwood Park, Willesden: ouvert en mai 1895, ancien parc victorien, environ 10,27 hectares
 Queen's Park, Kilburn, parc victorien, administré par la City of London
-Roe Green Park, première ouverture c. 1920, environ 16,83 hectares[6].</t>
+Roe Green Park, première ouverture c. 1920, environ 16,83 hectares.</t>
         </is>
       </c>
     </row>
